--- a/Assets/Resources/Data/CharaList.xlsx
+++ b/Assets/Resources/Data/CharaList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -83,9 +83,6 @@
   <si>
     <t>スナイパー</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カイン</t>
   </si>
   <si>
     <t>ガンナー</t>
@@ -160,22 +157,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チャリ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ガバさん</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>盗賊</t>
-    <rPh sb="0" eb="2">
-      <t>トウゾク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ガーバ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェネラル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -544,7 +538,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -564,7 +558,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -597,16 +591,16 @@
         <v>13</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
@@ -647,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -692,7 +686,7 @@
         <v>5</v>
       </c>
       <c r="M3" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -704,10 +698,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -737,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -749,10 +743,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -782,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -794,10 +788,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -827,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -839,10 +833,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -872,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -884,10 +878,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
@@ -917,13 +911,13 @@
         <v>5</v>
       </c>
       <c r="M8" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -933,10 +927,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -966,13 +960,13 @@
         <v>3</v>
       </c>
       <c r="M9" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -982,11 +976,9 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2">
         <v>1</v>
       </c>
@@ -1015,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>

--- a/Assets/Resources/Data/CharaList.xlsx
+++ b/Assets/Resources/Data/CharaList.xlsx
@@ -29,14 +29,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マルス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジェイガン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>lv</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -86,12 +78,6 @@
   </si>
   <si>
     <t>ガンナー</t>
-  </si>
-  <si>
-    <t>アベル</t>
-  </si>
-  <si>
-    <t>ゴードン</t>
   </si>
   <si>
     <t>ファイター</t>
@@ -161,7 +147,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ガーバ</t>
+    <t>ジェネラル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェーコブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲイリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キース</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -169,7 +167,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ジェネラル</t>
+    <t>ヒュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -538,7 +540,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -558,49 +560,49 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
@@ -608,10 +610,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -653,10 +655,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -698,10 +700,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -743,10 +745,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -788,10 +790,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -833,10 +835,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -878,10 +880,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
@@ -914,10 +916,10 @@
         <v>4</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -927,10 +929,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -963,10 +965,10 @@
         <v>4</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -976,7 +978,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">

--- a/Assets/Resources/Data/CharaList.xlsx
+++ b/Assets/Resources/Data/CharaList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -86,31 +86,10 @@
     <t>ソルジャー</t>
   </si>
   <si>
-    <t>中東</t>
-    <rPh sb="0" eb="2">
-      <t>ナカヒガシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>job</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>便王</t>
-    <rPh sb="0" eb="1">
-      <t>ベン</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>オウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シスター</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>skill2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -143,14 +122,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ガバさん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジェネラル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ジェーコブ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -172,6 +143,46 @@
   </si>
   <si>
     <t>ケン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イゴール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイモン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャイロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パイロット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヴィック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マーセナリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィーナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガンナー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レア</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -537,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -548,7 +559,9 @@
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="13" width="5.125" customWidth="1"/>
+    <col min="4" max="5" width="5.125" customWidth="1"/>
+    <col min="6" max="6" width="0.75" customWidth="1"/>
+    <col min="7" max="13" width="5.125" customWidth="1"/>
     <col min="14" max="17" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -560,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -593,16 +606,16 @@
         <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
@@ -610,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -655,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -700,7 +713,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
@@ -745,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -790,7 +803,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -835,7 +848,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -880,46 +893,46 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>7</v>
+      </c>
+      <c r="L8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="1">
-        <v>10</v>
-      </c>
-      <c r="H8" s="1">
-        <v>5</v>
-      </c>
-      <c r="I8" s="1">
-        <v>7</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>5</v>
-      </c>
-      <c r="L8" s="1">
-        <v>5</v>
-      </c>
       <c r="M8" s="1">
         <v>4</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -929,46 +942,46 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E9" s="2">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2">
         <v>11</v>
       </c>
       <c r="G9" s="2">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2">
+        <v>8</v>
+      </c>
+      <c r="I9" s="2">
+        <v>8</v>
+      </c>
+      <c r="J9" s="2">
+        <v>6</v>
+      </c>
+      <c r="K9" s="2">
+        <v>8</v>
+      </c>
+      <c r="L9" s="2">
         <v>2</v>
       </c>
-      <c r="H9" s="2">
-        <v>4</v>
-      </c>
-      <c r="I9" s="2">
-        <v>5</v>
-      </c>
-      <c r="J9" s="2">
-        <v>8</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>3</v>
-      </c>
       <c r="M9" s="2">
         <v>4</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -978,32 +991,34 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D10" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2">
+        <v>12</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>7</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2">
         <v>10</v>
-      </c>
-      <c r="G10" s="2">
-        <v>3</v>
-      </c>
-      <c r="H10" s="2">
-        <v>6</v>
-      </c>
-      <c r="I10" s="2">
-        <v>8</v>
-      </c>
-      <c r="J10" s="2">
-        <v>12</v>
-      </c>
-      <c r="K10" s="2">
-        <v>2</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
@@ -1017,10 +1032,136 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2">
+        <v>30</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>11</v>
+      </c>
+      <c r="H11" s="2">
+        <v>7</v>
+      </c>
+      <c r="I11" s="2">
+        <v>8</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5</v>
+      </c>
+      <c r="K11" s="2">
+        <v>6</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>16</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4</v>
+      </c>
+      <c r="I12" s="2">
+        <v>5</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>26</v>
+      </c>
+      <c r="F13" s="2">
+        <v>6</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>16</v>
+      </c>
+      <c r="I13" s="2">
+        <v>14</v>
+      </c>
+      <c r="J13" s="2">
+        <v>12</v>
+      </c>
+      <c r="K13" s="2">
+        <v>7</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Resources/Data/CharaList.xlsx
+++ b/Assets/Resources/Data/CharaList.xlsx
@@ -551,7 +551,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -701,7 +701,7 @@
         <v>5</v>
       </c>
       <c r="M3" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>24</v>
@@ -975,7 +975,7 @@
         <v>2</v>
       </c>
       <c r="M9" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>22</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
@@ -1151,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">

--- a/Assets/Resources/Data/CharaList.xlsx
+++ b/Assets/Resources/Data/CharaList.xlsx
@@ -551,7 +551,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -677,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1">
         <v>16</v>
@@ -686,19 +686,19 @@
         <v>5</v>
       </c>
       <c r="H3" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I3" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L3" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M3" s="1">
         <v>5</v>

--- a/Assets/Resources/Data/CharaList.xlsx
+++ b/Assets/Resources/Data/CharaList.xlsx
@@ -551,7 +551,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -632,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1">
         <v>8</v>
@@ -641,7 +641,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" s="1">
         <v>7</v>
@@ -731,7 +731,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" s="1">
         <v>7</v>
@@ -785,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1">
         <v>2</v>
@@ -863,7 +863,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7" s="1">
         <v>5</v>

--- a/Assets/Resources/Data/CharaList.xlsx
+++ b/Assets/Resources/Data/CharaList.xlsx
@@ -551,7 +551,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -644,10 +644,10 @@
         <v>7</v>
       </c>
       <c r="I2" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K2" s="1">
         <v>3</v>
@@ -722,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1">
         <v>5</v>
@@ -731,13 +731,13 @@
         <v>4</v>
       </c>
       <c r="H4" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I4" s="1">
         <v>7</v>
       </c>
       <c r="J4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K4" s="1">
         <v>4</v>
@@ -773,10 +773,10 @@
         <v>5</v>
       </c>
       <c r="G5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5" s="1">
         <v>8</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H6" s="1">
         <v>4</v>
@@ -875,13 +875,13 @@
         <v>2</v>
       </c>
       <c r="K7" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>24</v>
@@ -975,7 +975,7 @@
         <v>2</v>
       </c>
       <c r="M9" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>22</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1086,7 +1086,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -1095,13 +1095,13 @@
         <v>2</v>
       </c>
       <c r="H12" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I12" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J12" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K12" s="2">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2">
         <v>6</v>
@@ -1136,16 +1136,16 @@
         <v>5</v>
       </c>
       <c r="H13" s="2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I13" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J13" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K13" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L13" s="2">
         <v>1</v>
